--- a/xls/misRate.xlsx
+++ b/xls/misRate.xlsx
@@ -2,41 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="2">
@@ -56,29 +46,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -435,66 +412,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>bzip2_source</t>
+          <t>gamess_cytosine</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>5.9068265</t>
+          <t>0.6201053</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>4.5154448</t>
+          <t>1.0217533</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>1.0933464</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>perlbench_diffmail</t>
+          <t>soplex_ref</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.174881</t>
+          <t>1.8064837</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9266949</t>
+          <t>3.8250074</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.7952442</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hmmer_nph3</t>
+          <t>bzip2_source</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7.205717</t>
+          <t>5.4475594</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.329452</t>
+          <t>5.9068265</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.5154443</t>
         </is>
       </c>
     </row>
@@ -506,10 +498,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>1.7918022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>1.1954429</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>1.1016037</t>
         </is>
@@ -518,841 +515,1085 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bzip2_html</t>
+          <t>perlbench_splitmail</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.4440436</t>
+          <t>1.1377306</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.9728986</t>
+          <t>0.16804607</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.40407723</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>gcc_scilab</t>
+          <t>sphinx3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6.438995</t>
+          <t>1.7073748</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.4393544</t>
+          <t>2.7118042</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.8791069</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>gamess_triazolium</t>
+          <t>gromacs</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.36359584</t>
+          <t>3.1906538</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.543249</t>
+          <t>3.2223587</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.1888552</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>perlbench_splitmail</t>
+          <t>gamess_gradient</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.16804607</t>
+          <t>0.40708208</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.40407723</t>
+          <t>0.73201025</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.64451754</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dealII</t>
+          <t>povray</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.9112994</t>
+          <t>1.6781844</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.48771733</t>
+          <t>0.42227226</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.0026002</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>h264ref_sss</t>
+          <t>gobmk_trevorc</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.8593118</t>
+          <t>5.684244</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.7580978</t>
+          <t>7.0428386</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.156542</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>gobmk_nngs</t>
+          <t>perlbench_checkspam</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6.367755</t>
+          <t>1.4150059</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>6.1752834</t>
+          <t>2.036675</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.8315384</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>omnetpp</t>
+          <t>gobmk_trevord</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.2659235</t>
+          <t>4.904336</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.6028886</t>
+          <t>6.8610077</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.14552</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gcc_166</t>
+          <t>gobmk_13x13</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.47904584</t>
+          <t>5.650284</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.2002124</t>
+          <t>7.0240936</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.405227</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>tonto</t>
+          <t>lbm</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.64862883</t>
+          <t>0.32822812</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.63805366</t>
+          <t>0.2024246</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.2795634</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>soplex_pds</t>
+          <t>gcc_s04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8.040449</t>
+          <t>0.7162525</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3.5804129</t>
+          <t>1.8132335</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.92732203</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>gcc_200</t>
+          <t>xalancbmk</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3.3400497</t>
+          <t>0.5740581</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.4396446</t>
+          <t>0.3682603</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.76805335</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>gobmk_score2</t>
+          <t>calculix</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6.424819</t>
+          <t>0.71583575</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5.481518</t>
+          <t>0.15771408</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.058963</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>libquantum</t>
+          <t>GemsFDTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.0053252485</t>
+          <t>0.020089384</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.45768848</t>
+          <t>0.34839988</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.23175083</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>lbm</t>
+          <t>gobmk_nngs</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.2024246</t>
+          <t>4.777171</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.2795634</t>
+          <t>6.367755</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.1752834</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sjeng</t>
+          <t>gcc_typeck</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3.9188893</t>
+          <t>0.91522884</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.116167</t>
+          <t>1.8401636</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.1740934</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>h264ref_foreman</t>
+          <t>leslie3d</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.10729</t>
+          <t>0.022322657</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.083473</t>
+          <t>0.5068747</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.44019282</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>sphinx3</t>
+          <t>gcc_166</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2.7118044</t>
+          <t>0.6361451</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.8791069</t>
+          <t>0.4790458</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.2002122</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>zeusmp</t>
+          <t>astar_biglakes</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.07193105</t>
+          <t>2.5259366</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.4576654</t>
+          <t>3.449126</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.0894308</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>bwaves</t>
+          <t>gcc_scilab</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.710039</t>
+          <t>2.9218278</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.10315781</t>
+          <t>6.438995</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.4393544</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>gobmk_13x13</t>
+          <t>dealII</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7.0240936</t>
+          <t>0.6877501</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>6.4052277</t>
+          <t>0.91129935</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.48771736</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>astar_biglakes</t>
+          <t>hmmer_retro</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3.449126</t>
+          <t>5.204569</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3.0894308</t>
+          <t>6.7253485</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.05181</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>gobmk_trevorc</t>
+          <t>gamess_triazolium</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7.042839</t>
+          <t>0.29329836</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>7.156542</t>
+          <t>0.36359584</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.543249</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>xalancbmk</t>
+          <t>soplex_pds</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.3682603</t>
+          <t>4.2832165</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.7680534</t>
+          <t>8.04045</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.5804129</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>namd</t>
+          <t>zeusmp</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4.128219</t>
+          <t>0.016822364</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.9561266</t>
+          <t>0.07193105</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.4576654</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>bzip2_program</t>
+          <t>tonto</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3.754082</t>
+          <t>0.43922925</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2.8091526</t>
+          <t>0.64862883</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.63805366</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>gcc_g23</t>
+          <t>namd</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.14458473</t>
+          <t>2.4932652</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.5552767</t>
+          <t>4.128219</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.9561265</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>bzip2_chicken</t>
+          <t>cactusADM</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2.3149302</t>
+          <t>0.26611874</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.3752012</t>
+          <t>0.5330614</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.47621247</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>gcc_typeck</t>
+          <t>milc</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1.8401635</t>
+          <t>0.1992996</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.1740934</t>
+          <t>0.042798184</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.054068208</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>gobmk_trevord</t>
+          <t>bzip2_html</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6.861008</t>
+          <t>2.5612817</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>6.14552</t>
+          <t>2.4440436</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.9728986</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>bzip2_combined</t>
+          <t>astar_rivers</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5.4711475</t>
+          <t>5.3163304</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4.404325</t>
+          <t>7.357437</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.0976977</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>astar_rivers</t>
+          <t>bwaves</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>7.357437</t>
+          <t>0.001322536</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>6.0976977</t>
+          <t>1.710039</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.10315781</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>calculix</t>
+          <t>mcf</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0.15771408</t>
+          <t>4.760824</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.058963</t>
+          <t>8.236583</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.6097627</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>milc</t>
+          <t>bzip2_program</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0.042798188</t>
+          <t>3.2606792</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.05406821</t>
+          <t>3.7540817</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.8091524</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>cactusADM</t>
+          <t>bzip2_liberty</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0.5330614</t>
+          <t>0.8239502</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.47621247</t>
+          <t>1.0094827</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.6809737</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>gromacs</t>
+          <t>gcc_g23</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3.2223582</t>
+          <t>0.2855232</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2.1888552</t>
+          <t>0.14458473</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.5552767</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>gcc_s04</t>
+          <t>gobmk_score2</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1.8132335</t>
+          <t>4.887704</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.92732203</t>
+          <t>6.424819</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.481518</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>gcc_expr</t>
+          <t>h264ref_sss</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0.026233373</t>
+          <t>1.311112</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.061945952</t>
+          <t>0.8593118</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.7580978</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>mcf</t>
+          <t>gcc_expr2</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>8.236583</t>
+          <t>0.92864394</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4.609763</t>
+          <t>1.9936602</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.2036651</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>hmmer_retro</t>
+          <t>omnetpp</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6.7253485</t>
+          <t>1.6223485</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>5.0518093</t>
+          <t>1.2659235</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.6028886</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>gamess_gradient</t>
+          <t>bzip2_combined</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0.7320102</t>
+          <t>5.1875453</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.6445175</t>
+          <t>5.471147</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.404325</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>perlbench_checkspam</t>
+          <t>bzip2_chicken</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2.036675</t>
+          <t>1.7873846</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1.8315383</t>
+          <t>2.3149302</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.3752012</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>gamess_cytosine</t>
+          <t>perlbench_diffmail</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1.0217533</t>
+          <t>0.325941</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.0933464</t>
+          <t>0.174881</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.9266949</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>povray</t>
+          <t>gcc_200</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0.42227226</t>
+          <t>1.9305483</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2.0026002</t>
+          <t>3.3400497</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.4396446</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>soplex_ref</t>
+          <t>h264ref_foreman</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3.825007</t>
+          <t>1.5869465</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1.7952443</t>
+          <t>1.10729</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.083473</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>leslie3d</t>
+          <t>sjeng</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0.5068747</t>
+          <t>2.3810697</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.44019282</t>
+          <t>3.918889</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.116167</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>gcc_expr2</t>
+          <t>libquantum</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1.9936602</t>
+          <t>0.051655423</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.2036651</t>
+          <t>0.0053252485</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.4576885</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>bzip2_liberty</t>
+          <t>hmmer_nph3</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1.0094827</t>
+          <t>5.8182836</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.6809737</t>
+          <t>7.205717</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.3294516</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>GemsFDTD</t>
+          <t>gcc_expr</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0.34839985</t>
+          <t>0.03459672</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.23175085</t>
+          <t>0.026233373</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.061945952</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="0" differentFirst="0">
+  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12 页 &amp;P</oddFooter>
     <evenHeader/>

--- a/xls/misRate.xlsx
+++ b/xls/misRate.xlsx
@@ -416,10 +416,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="A1:XFD1048576"/>
+      <selection activeCell="I17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -427,1056 +427,1296 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>gamess_cytosine</t>
+          <t>mcf</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>0.6201053</t>
+          <t>4.9667597</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>1.0217533</t>
+          <t>4.760824</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>1.0933464</t>
+          <t>8.236583</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>4.6097627</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>soplex_ref</t>
+          <t>gcc_s04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.8064837</t>
+          <t>0.5720736</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.8250074</t>
+          <t>0.7162525</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.7952442</t>
+          <t>1.8132335</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.92732203</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>bzip2_source</t>
+          <t>astar_biglakes</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5.4475594</t>
+          <t>2.5908766</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.9068265</t>
+          <t>2.5259366</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.5154443</t>
+          <t>3.449126</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3.0894308</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gcc_cpdecl</t>
+          <t>milc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.7918022</t>
+          <t>0.19949731</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.1954429</t>
+          <t>0.1992996</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.1016037</t>
+          <t>0.042798184</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.054068208</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>perlbench_splitmail</t>
+          <t>libquantum</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.1377306</t>
+          <t>0.11678916</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.16804607</t>
+          <t>0.051655423</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.40407723</t>
+          <t>0.0053252485</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.4576885</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sphinx3</t>
+          <t>lbm</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.7073748</t>
+          <t>0.32822812</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.7118042</t>
+          <t>0.32822812</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.8791069</t>
+          <t>0.2024246</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.2795634</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>gromacs</t>
+          <t>sphinx3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3.1906538</t>
+          <t>1.7915032</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.2223587</t>
+          <t>1.7073748</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.1888552</t>
+          <t>2.7118042</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.8791069</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>gamess_gradient</t>
+          <t>h264ref_sss</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.40708208</t>
+          <t>1.3053688</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.73201025</t>
+          <t>1.311112</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.64451754</t>
+          <t>0.8593118</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.7580978</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>povray</t>
+          <t>perlbench_checkspam</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.6781844</t>
+          <t>1.1652488</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.42227226</t>
+          <t>1.4150059</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.0026002</t>
+          <t>2.036675</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.8315384</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>gobmk_trevorc</t>
+          <t>bzip2_combined</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5.684244</t>
+          <t>5.4668374</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7.0428386</t>
+          <t>5.1875453</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.156542</t>
+          <t>5.471147</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4.404325</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>perlbench_checkspam</t>
+          <t>gamess_gradient</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.4150059</t>
+          <t>0.4475827</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.036675</t>
+          <t>0.40708208</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.8315384</t>
+          <t>0.73201025</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.64451754</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>gobmk_trevord</t>
+          <t>bzip2_liberty</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4.904336</t>
+          <t>0.8296263</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>6.8610077</t>
+          <t>0.8239502</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.14552</t>
+          <t>1.0094827</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.6809737</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gobmk_13x13</t>
+          <t>omnetpp</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5.650284</t>
+          <t>1.5214639</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7.0240936</t>
+          <t>1.6223485</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.405227</t>
+          <t>1.2659235</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.6028886</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>lbm</t>
+          <t>gamess_triazolium</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.32822812</t>
+          <t>1.1609335</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.2024246</t>
+          <t>0.29329836</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.2795634</t>
+          <t>0.36359584</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.543249</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>gcc_s04</t>
+          <t>tonto</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.7162525</t>
+          <t>0.43801475</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.8132335</t>
+          <t>0.43922925</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.92732203</t>
+          <t>0.64862883</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.63805366</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>xalancbmk</t>
+          <t>leslie3d</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.5740581</t>
+          <t>0.022322657</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.3682603</t>
+          <t>0.022322657</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.76805335</t>
+          <t>0.5068747</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.44019282</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>calculix</t>
+          <t>zeusmp</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.71583575</t>
+          <t>0.016822364</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.15771408</t>
+          <t>0.016822364</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.058963</t>
+          <t>0.07193105</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.4576654</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GemsFDTD</t>
+          <t>gcc_expr2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.020089384</t>
+          <t>0.74180764</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.34839988</t>
+          <t>0.92864394</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.23175083</t>
+          <t>1.9936602</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1.2036651</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>gobmk_nngs</t>
+          <t>gromacs</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4.777171</t>
+          <t>2.3902307</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>6.367755</t>
+          <t>3.1906538</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6.1752834</t>
+          <t>3.2223587</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.1888552</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>gcc_typeck</t>
+          <t>hmmer_nph3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.91522884</t>
+          <t>5.824224</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.8401636</t>
+          <t>5.8182836</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.1740934</t>
+          <t>7.205717</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>5.3294516</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>leslie3d</t>
+          <t>soplex_pds</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.022322657</t>
+          <t>4.9361863</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.5068747</t>
+          <t>4.2832165</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.44019282</t>
+          <t>8.04045</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3.5804129</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>gcc_166</t>
+          <t>gcc_g23</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.6361451</t>
+          <t>0.29314095</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.4790458</t>
+          <t>0.2855232</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.2002122</t>
+          <t>0.14458473</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.5552767</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>astar_biglakes</t>
+          <t>bzip2_source</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.5259366</t>
+          <t>5.808793</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3.449126</t>
+          <t>5.4475594</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.0894308</t>
+          <t>5.9068265</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>4.5154443</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>gcc_scilab</t>
+          <t>bzip2_chicken</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2.9218278</t>
+          <t>1.9918292</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>6.438995</t>
+          <t>1.7873846</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3.4393544</t>
+          <t>2.3149302</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1.3752012</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>dealII</t>
+          <t>bzip2_html</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.6877501</t>
+          <t>2.7957253</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.91129935</t>
+          <t>2.5612817</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.48771736</t>
+          <t>2.4440436</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1.9728986</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>hmmer_retro</t>
+          <t>gamess_cytosine</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5.204569</t>
+          <t>0.7307325</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6.7253485</t>
+          <t>0.6201053</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5.05181</t>
+          <t>1.0217533</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1.0933464</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>gamess_triazolium</t>
+          <t>gcc_expr</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0.29329836</t>
+          <t>0.034704782</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.36359584</t>
+          <t>0.03459672</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.543249</t>
+          <t>0.026233373</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.061945952</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>soplex_pds</t>
+          <t>gobmk_13x13</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4.2832165</t>
+          <t>5.8661833</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>8.04045</t>
+          <t>5.650284</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3.5804129</t>
+          <t>7.0240936</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>6.405227</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>zeusmp</t>
+          <t>perlbench_splitmail</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.016822364</t>
+          <t>0.9728653</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.07193105</t>
+          <t>1.1377306</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.4576654</t>
+          <t>0.16804607</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.40407723</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>tonto</t>
+          <t>bzip2_program</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.43922925</t>
+          <t>3.6264546</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.64862883</t>
+          <t>3.2606792</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.63805366</t>
+          <t>3.7540817</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2.8091524</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>namd</t>
+          <t>astar_rivers</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2.4932652</t>
+          <t>5.276423</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4.128219</t>
+          <t>5.3163304</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.9561265</t>
+          <t>7.357437</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>6.0976977</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>cactusADM</t>
+          <t>calculix</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0.26611874</t>
+          <t>0.7149947</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.5330614</t>
+          <t>0.71583575</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.47621247</t>
+          <t>0.15771408</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.058963</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>milc</t>
+          <t>sjeng</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0.1992996</t>
+          <t>2.6252222</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.042798184</t>
+          <t>2.3810697</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.054068208</t>
+          <t>3.918889</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>4.116167</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>bzip2_html</t>
+          <t>gcc_cpdecl</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2.5612817</t>
+          <t>1.1898406</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2.4440436</t>
+          <t>1.7918022</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.9728986</t>
+          <t>1.1954429</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1.1016037</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>astar_rivers</t>
+          <t>gcc_166</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5.3163304</t>
+          <t>0.54820955</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>7.357437</t>
+          <t>0.6361451</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6.0976977</t>
+          <t>0.4790458</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1.2002122</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>bwaves</t>
+          <t>gobmk_trevorc</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0.001322536</t>
+          <t>5.8376727</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.710039</t>
+          <t>5.684244</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.10315781</t>
+          <t>7.0428386</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>7.156542</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>mcf</t>
+          <t>gobmk_trevord</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4.760824</t>
+          <t>5.264126</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>8.236583</t>
+          <t>4.904336</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4.6097627</t>
+          <t>6.8610077</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>6.14552</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bzip2_program</t>
+          <t>gcc_200</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3.2606792</t>
+          <t>1.5888864</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3.7540817</t>
+          <t>1.9305483</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2.8091524</t>
+          <t>3.3400497</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2.4396446</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bzip2_liberty</t>
+          <t>gcc_typeck</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0.8239502</t>
+          <t>0.8173079</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.0094827</t>
+          <t>0.91522884</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.6809737</t>
+          <t>1.8401636</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1.1740934</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>gcc_g23</t>
+          <t>povray</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0.2855232</t>
+          <t>0.81801677</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.14458473</t>
+          <t>1.6781844</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.5552767</t>
+          <t>0.42227226</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2.0026002</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>gobmk_score2</t>
+          <t>dealII</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4.887704</t>
+          <t>0.6189416</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>6.424819</t>
+          <t>0.6877501</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5.481518</t>
+          <t>0.91129935</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.48771736</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>h264ref_sss</t>
+          <t>namd</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1.311112</t>
+          <t>2.4911737</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.8593118</t>
+          <t>2.4932652</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.7580978</t>
+          <t>4.128219</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1.9561265</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>gcc_expr2</t>
+          <t>gcc_scilab</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0.92864394</t>
+          <t>2.157248</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.9936602</t>
+          <t>2.9218278</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.2036651</t>
+          <t>6.438995</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>3.4393544</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>omnetpp</t>
+          <t>gobmk_nngs</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1.6223485</t>
+          <t>5.0514097</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1.2659235</t>
+          <t>4.777171</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1.6028886</t>
+          <t>6.367755</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>6.1752834</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>bzip2_combined</t>
+          <t>bwaves</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5.1875453</t>
+          <t>0.001322536</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>5.471147</t>
+          <t>0.001322536</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4.404325</t>
+          <t>1.710039</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0.10315781</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>bzip2_chicken</t>
+          <t>soplex_ref</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1.7873846</t>
+          <t>2.266043</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2.3149302</t>
+          <t>1.8064837</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.3752012</t>
+          <t>3.8250074</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1.7952442</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>perlbench_diffmail</t>
+          <t>gobmk_score2</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0.325941</t>
+          <t>5.2301865</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.174881</t>
+          <t>4.887704</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.9266949</t>
+          <t>6.424819</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>5.481518</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>gcc_200</t>
+          <t>GemsFDTD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1.9305483</t>
+          <t>0.020089384</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3.3400497</t>
+          <t>0.020089384</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2.4396446</t>
+          <t>0.34839988</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0.23175083</t>
         </is>
       </c>
     </row>
@@ -1488,15 +1728,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>1.5559138</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>1.5869465</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>1.10729</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1.083473</t>
         </is>
@@ -1505,88 +1750,108 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>sjeng</t>
+          <t>cactusADM</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2.3810697</t>
+          <t>0.26611874</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3.918889</t>
+          <t>0.26611874</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4.116167</t>
+          <t>0.5330614</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0.47621247</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>libquantum</t>
+          <t>hmmer_retro</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0.051655423</t>
+          <t>5.181733</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.0053252485</t>
+          <t>5.204569</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.4576885</t>
+          <t>6.7253485</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>5.05181</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>hmmer_nph3</t>
+          <t>xalancbmk</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5.8182836</t>
+          <t>0.47062424</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>7.205717</t>
+          <t>0.5740581</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5.3294516</t>
+          <t>0.3682603</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0.76805335</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>gcc_expr</t>
+          <t>perlbench_diffmail</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0.03459672</t>
+          <t>0.31141597</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.026233373</t>
+          <t>0.325941</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.061945952</t>
+          <t>0.174881</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0.9266949</t>
         </is>
       </c>
     </row>
